--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H2">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.51345754371974</v>
+        <v>2.672731</v>
       </c>
       <c r="N2">
-        <v>1.51345754371974</v>
+        <v>8.018193</v>
       </c>
       <c r="O2">
-        <v>0.7365294301044524</v>
+        <v>0.5408378022089502</v>
       </c>
       <c r="P2">
-        <v>0.7365294301044524</v>
+        <v>0.5408378022089503</v>
       </c>
       <c r="Q2">
-        <v>1.932730467127686</v>
+        <v>17.168490706056</v>
       </c>
       <c r="R2">
-        <v>1.932730467127686</v>
+        <v>154.516416354504</v>
       </c>
       <c r="S2">
-        <v>0.000246707169129323</v>
+        <v>0.0009091614440434728</v>
       </c>
       <c r="T2">
-        <v>0.000246707169129323</v>
+        <v>0.000909161444043473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H3">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.541392516385945</v>
+        <v>1.627877666666667</v>
       </c>
       <c r="N3">
-        <v>0.541392516385945</v>
+        <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.2634705698955476</v>
+        <v>0.3294075533620981</v>
       </c>
       <c r="P3">
-        <v>0.2634705698955476</v>
+        <v>0.3294075533620982</v>
       </c>
       <c r="Q3">
-        <v>0.691374406527657</v>
+        <v>10.456795910536</v>
       </c>
       <c r="R3">
-        <v>0.691374406527657</v>
+        <v>94.11116319482399</v>
       </c>
       <c r="S3">
-        <v>8.825184139431042E-05</v>
+        <v>0.0005537420751107334</v>
       </c>
       <c r="T3">
-        <v>8.825184139431042E-05</v>
+        <v>0.0005537420751107335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3580.33884961302</v>
+        <v>6.423576</v>
       </c>
       <c r="H4">
-        <v>3580.33884961302</v>
+        <v>19.270728</v>
       </c>
       <c r="I4">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J4">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.51345754371974</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N4">
-        <v>1.51345754371974</v>
+        <v>0.055589</v>
       </c>
       <c r="O4">
-        <v>0.7365294301044524</v>
+        <v>0.003749552123152102</v>
       </c>
       <c r="P4">
-        <v>0.7365294301044524</v>
+        <v>0.003749552123152104</v>
       </c>
       <c r="Q4">
-        <v>5418.690841019681</v>
+        <v>0.119026722088</v>
       </c>
       <c r="R4">
-        <v>5418.690841019681</v>
+        <v>1.071240498792</v>
       </c>
       <c r="S4">
-        <v>0.6916794144408955</v>
+        <v>6.303087929279403E-06</v>
       </c>
       <c r="T4">
-        <v>0.6916794144408955</v>
+        <v>6.303087929279404E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3580.33884961302</v>
+        <v>6.423576</v>
       </c>
       <c r="H5">
-        <v>3580.33884961302</v>
+        <v>19.270728</v>
       </c>
       <c r="I5">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J5">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.541392516385945</v>
+        <v>0.6226963333333334</v>
       </c>
       <c r="N5">
-        <v>0.541392516385945</v>
+        <v>1.868089</v>
       </c>
       <c r="O5">
-        <v>0.2634705698955476</v>
+        <v>0.1260050923057995</v>
       </c>
       <c r="P5">
-        <v>0.2634705698955476</v>
+        <v>0.1260050923057995</v>
       </c>
       <c r="Q5">
-        <v>1938.368659306352</v>
+        <v>3.999937222088001</v>
       </c>
       <c r="R5">
-        <v>1938.368659306352</v>
+        <v>35.999434998792</v>
       </c>
       <c r="S5">
-        <v>0.2474268672222874</v>
+        <v>0.0002118176118786024</v>
       </c>
       <c r="T5">
-        <v>0.2474268672222874</v>
+        <v>0.0002118176118786025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.495626361418856</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H6">
-        <v>0.495626361418856</v>
+        <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J6">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.51345754371974</v>
+        <v>2.672731</v>
       </c>
       <c r="N6">
-        <v>1.51345754371974</v>
+        <v>8.018193</v>
       </c>
       <c r="O6">
-        <v>0.7365294301044524</v>
+        <v>0.5408378022089502</v>
       </c>
       <c r="P6">
-        <v>0.7365294301044524</v>
+        <v>0.5408378022089503</v>
       </c>
       <c r="Q6">
-        <v>0.7501094555557339</v>
+        <v>9570.099638875072</v>
       </c>
       <c r="R6">
-        <v>0.7501094555557339</v>
+        <v>86130.89674987564</v>
       </c>
       <c r="S6">
-        <v>9.574919186342349E-05</v>
+        <v>0.5067868664920252</v>
       </c>
       <c r="T6">
-        <v>9.574919186342349E-05</v>
+        <v>0.5067868664920253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.495626361418856</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H7">
-        <v>0.495626361418856</v>
+        <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J7">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.541392516385945</v>
+        <v>1.627877666666667</v>
       </c>
       <c r="N7">
-        <v>0.541392516385945</v>
+        <v>4.883633</v>
       </c>
       <c r="O7">
-        <v>0.2634705698955476</v>
+        <v>0.3294075533620981</v>
       </c>
       <c r="P7">
-        <v>0.2634705698955476</v>
+        <v>0.3294075533620982</v>
       </c>
       <c r="Q7">
-        <v>0.2683284029957643</v>
+        <v>5828.851264829666</v>
       </c>
       <c r="R7">
-        <v>0.2683284029957643</v>
+        <v>52459.661383467</v>
       </c>
       <c r="S7">
-        <v>3.425130499363302E-05</v>
+        <v>0.308668183113957</v>
       </c>
       <c r="T7">
-        <v>3.425130499363302E-05</v>
+        <v>0.3086681831139571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>230.384395350604</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H8">
-        <v>230.384395350604</v>
+        <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.06042875882943625</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J8">
-        <v>0.06042875882943625</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.51345754371974</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N8">
-        <v>1.51345754371974</v>
+        <v>0.055589</v>
       </c>
       <c r="O8">
-        <v>0.7365294301044524</v>
+        <v>0.003749552123152102</v>
       </c>
       <c r="P8">
-        <v>0.7365294301044524</v>
+        <v>0.003749552123152104</v>
       </c>
       <c r="Q8">
-        <v>348.6770010986826</v>
+        <v>66.34814961742956</v>
       </c>
       <c r="R8">
-        <v>348.6770010986826</v>
+        <v>597.1333465568659</v>
       </c>
       <c r="S8">
-        <v>0.04450755930256408</v>
+        <v>0.003513481793394745</v>
       </c>
       <c r="T8">
-        <v>0.04450755930256408</v>
+        <v>0.003513481793394746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>230.384395350604</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H9">
-        <v>230.384395350604</v>
+        <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.06042875882943625</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J9">
-        <v>0.06042875882943625</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.541392516385945</v>
+        <v>0.6226963333333334</v>
       </c>
       <c r="N9">
-        <v>0.541392516385945</v>
+        <v>1.868089</v>
       </c>
       <c r="O9">
-        <v>0.2634705698955476</v>
+        <v>0.1260050923057995</v>
       </c>
       <c r="P9">
-        <v>0.2634705698955476</v>
+        <v>0.1260050923057995</v>
       </c>
       <c r="Q9">
-        <v>124.7283875349179</v>
+        <v>2229.654220631319</v>
       </c>
       <c r="R9">
-        <v>124.7283875349179</v>
+        <v>20066.88798568187</v>
       </c>
       <c r="S9">
-        <v>0.01592119952687217</v>
+        <v>0.1180718611585205</v>
       </c>
       <c r="T9">
-        <v>0.01592119952687217</v>
+        <v>0.1180718611585205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9157713333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.747314</v>
+      </c>
+      <c r="I10">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="J10">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>2.672731</v>
+      </c>
+      <c r="N10">
+        <v>8.018193</v>
+      </c>
+      <c r="O10">
+        <v>0.5408378022089502</v>
+      </c>
+      <c r="P10">
+        <v>0.5408378022089503</v>
+      </c>
+      <c r="Q10">
+        <v>2.447610431511334</v>
+      </c>
+      <c r="R10">
+        <v>22.028493883602</v>
+      </c>
+      <c r="S10">
+        <v>0.0001296137833236425</v>
+      </c>
+      <c r="T10">
+        <v>0.0001296137833236425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9157713333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.747314</v>
+      </c>
+      <c r="I11">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="J11">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.627877666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.883633</v>
+      </c>
+      <c r="O11">
+        <v>0.3294075533620981</v>
+      </c>
+      <c r="P11">
+        <v>0.3294075533620982</v>
+      </c>
+      <c r="Q11">
+        <v>1.490763701306889</v>
+      </c>
+      <c r="R11">
+        <v>13.416873311762</v>
+      </c>
+      <c r="S11">
+        <v>7.894374075233533E-05</v>
+      </c>
+      <c r="T11">
+        <v>7.894374075233536E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9157713333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.747314</v>
+      </c>
+      <c r="I12">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="J12">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01852966666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.055589</v>
+      </c>
+      <c r="O12">
+        <v>0.003749552123152102</v>
+      </c>
+      <c r="P12">
+        <v>0.003749552123152104</v>
+      </c>
+      <c r="Q12">
+        <v>0.01696893754955556</v>
+      </c>
+      <c r="R12">
+        <v>0.152720437946</v>
+      </c>
+      <c r="S12">
+        <v>8.98594059930705E-07</v>
+      </c>
+      <c r="T12">
+        <v>8.985940599307054E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9157713333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.747314</v>
+      </c>
+      <c r="I13">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="J13">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6226963333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.868089</v>
+      </c>
+      <c r="O13">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="P13">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="Q13">
+        <v>0.5702474514384446</v>
+      </c>
+      <c r="R13">
+        <v>5.132227062946001</v>
+      </c>
+      <c r="S13">
+        <v>3.019758727125674E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.019758727125675E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>233.243637</v>
+      </c>
+      <c r="H14">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J14">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>2.672731</v>
+      </c>
+      <c r="N14">
+        <v>8.018193</v>
+      </c>
+      <c r="O14">
+        <v>0.5408378022089502</v>
+      </c>
+      <c r="P14">
+        <v>0.5408378022089503</v>
+      </c>
+      <c r="Q14">
+        <v>623.3974991626471</v>
+      </c>
+      <c r="R14">
+        <v>5610.577492463824</v>
+      </c>
+      <c r="S14">
+        <v>0.03301216048955778</v>
+      </c>
+      <c r="T14">
+        <v>0.0330121604895578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>233.243637</v>
+      </c>
+      <c r="H15">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J15">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.627877666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.883633</v>
+      </c>
+      <c r="O15">
+        <v>0.3294075533620981</v>
+      </c>
+      <c r="P15">
+        <v>0.3294075533620982</v>
+      </c>
+      <c r="Q15">
+        <v>379.692107564407</v>
+      </c>
+      <c r="R15">
+        <v>3417.228968079663</v>
+      </c>
+      <c r="S15">
+        <v>0.02010668443227801</v>
+      </c>
+      <c r="T15">
+        <v>0.02010668443227802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>233.243637</v>
+      </c>
+      <c r="H16">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J16">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01852966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.055589</v>
+      </c>
+      <c r="O16">
+        <v>0.003749552123152102</v>
+      </c>
+      <c r="P16">
+        <v>0.003749552123152104</v>
+      </c>
+      <c r="Q16">
+        <v>4.321926845731</v>
+      </c>
+      <c r="R16">
+        <v>38.89734161157901</v>
+      </c>
+      <c r="S16">
+        <v>0.0002288686477681477</v>
+      </c>
+      <c r="T16">
+        <v>0.0002288686477681478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>233.243637</v>
+      </c>
+      <c r="H17">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J17">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6226963333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.868089</v>
+      </c>
+      <c r="O17">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="P17">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="Q17">
+        <v>145.239957533231</v>
+      </c>
+      <c r="R17">
+        <v>1307.159617799079</v>
+      </c>
+      <c r="S17">
+        <v>0.007691215948129149</v>
+      </c>
+      <c r="T17">
+        <v>0.007691215948129152</v>
       </c>
     </row>
   </sheetData>
